--- a/src/test/resources/Excel/ProfileDetails.xlsx
+++ b/src/test/resources/Excel/ProfileDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="4536"/>
+    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -488,11 +488,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -542,8 +549,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
